--- a/dataset/day_4.xlsx
+++ b/dataset/day_4.xlsx
@@ -843,7 +843,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -20155,7 +20155,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -25367,7 +25367,7 @@
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -25859,7 +25859,7 @@
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -28311,7 +28311,7 @@
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -29443,7 +29443,7 @@
       </c>
       <c r="H722" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -34655,7 +34655,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.humidity_up -&gt; (F[0, 60*60] !MeetingRoomTwo.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -36107,7 +36107,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -36279,7 +36279,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -39211,7 +39211,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down); G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#1; #3</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -39463,7 +39463,7 @@
       </c>
       <c r="H971" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -42275,7 +42275,7 @@
       </c>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -42847,7 +42847,7 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
@@ -46779,7 +46779,7 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
@@ -47591,7 +47591,7 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
@@ -49523,7 +49523,7 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
@@ -50855,7 +50855,7 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -51667,7 +51667,7 @@
       </c>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
@@ -51919,7 +51919,7 @@
       </c>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1280" t="inlineStr">
@@ -58891,7 +58891,7 @@
       </c>
       <c r="H1454" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1454" t="inlineStr">
@@ -65543,7 +65543,7 @@
       </c>
       <c r="H1620" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I1620" t="inlineStr">
@@ -67755,7 +67755,7 @@
       </c>
       <c r="H1675" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.WaterDispenser.on))</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="I1675" t="inlineStr">
@@ -69687,7 +69687,7 @@
       </c>
       <c r="H1723" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1723" t="inlineStr">
@@ -70219,7 +70219,7 @@
       </c>
       <c r="H1736" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I1736" t="inlineStr">
@@ -71671,7 +71671,7 @@
       </c>
       <c r="H1772" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1772" t="inlineStr">
